--- a/data/trans_orig/CLASESOCIAL_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>160566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139666</v>
+        <v>136104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184113</v>
+        <v>184054</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.231711444135964</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.201552019764052</v>
+        <v>0.1964111278844707</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2656926862832766</v>
+        <v>0.265607551373145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>415</v>
@@ -765,19 +765,19 @@
         <v>410379</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>385029</v>
+        <v>385414</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>436282</v>
+        <v>436135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5961775165070992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5593491830507029</v>
+        <v>0.5599090752882289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6338071138301031</v>
+        <v>0.6335933911550987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>575</v>
@@ -786,19 +786,19 @@
         <v>570945</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>534944</v>
+        <v>535699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>606944</v>
+        <v>608671</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4133371032968224</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3872742083848874</v>
+        <v>0.3878206667088288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4393985929954822</v>
+        <v>0.4406489129562501</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>305559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278759</v>
+        <v>279154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>329961</v>
+        <v>332021</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4409507604878589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4022754243908897</v>
+        <v>0.4028456815312379</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4761652043486198</v>
+        <v>0.4791376624337103</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -836,19 +836,19 @@
         <v>168140</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>146812</v>
+        <v>144975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>191281</v>
+        <v>189868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2442653242873564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2132812475647027</v>
+        <v>0.2106125564685559</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2778834946319553</v>
+        <v>0.2758296851581557</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>474</v>
@@ -857,19 +857,19 @@
         <v>473699</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>440572</v>
+        <v>439133</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>508128</v>
+        <v>506330</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3429358155991604</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3189532833490747</v>
+        <v>0.3179116823721863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3678608533004982</v>
+        <v>0.3665591493460523</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>104362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87040</v>
+        <v>85912</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>125742</v>
+        <v>123214</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1506037291813344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1256071067136458</v>
+        <v>0.1239785151261369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1814570721596066</v>
+        <v>0.1778098234841658</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -907,19 +907,19 @@
         <v>37575</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27286</v>
+        <v>27102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52097</v>
+        <v>50412</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05458635057523943</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03964031208571512</v>
+        <v>0.03937248221302402</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07568361431222888</v>
+        <v>0.0732354814554453</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>137</v>
@@ -928,19 +928,19 @@
         <v>141936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>119726</v>
+        <v>119960</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>167223</v>
+        <v>166595</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1027550513420666</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08667600986027368</v>
+        <v>0.08684561785879746</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1210613443636954</v>
+        <v>0.1206070932924658</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>54109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39876</v>
+        <v>41733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68873</v>
+        <v>70054</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07808422997736675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05754440400842512</v>
+        <v>0.06022510611941984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09939003472972709</v>
+        <v>0.1010947228051635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -978,19 +978,19 @@
         <v>34771</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23295</v>
+        <v>24601</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46595</v>
+        <v>46921</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05051417062309246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03384159855751356</v>
+        <v>0.03573840911316989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06769036116942846</v>
+        <v>0.06816388176694849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -999,19 +999,19 @@
         <v>88880</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72124</v>
+        <v>72823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108788</v>
+        <v>107996</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06434514537410908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05221429215533324</v>
+        <v>0.05272033452683561</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07875734927491902</v>
+        <v>0.07818382247716736</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>68360</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53767</v>
+        <v>54551</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84176</v>
+        <v>84659</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09864983621747599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07759148357882628</v>
+        <v>0.07872245533900395</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1214741187836631</v>
+        <v>0.1221716362338767</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -1049,19 +1049,19 @@
         <v>37485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27011</v>
+        <v>27091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50359</v>
+        <v>51677</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05445663800721258</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03923992804843761</v>
+        <v>0.03935565945062136</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07315923703482251</v>
+        <v>0.07507380034831893</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>106</v>
@@ -1070,19 +1070,19 @@
         <v>105845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>90229</v>
+        <v>89225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126614</v>
+        <v>127640</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07662688438784157</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06532127767054466</v>
+        <v>0.06459485010238669</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09166288708590085</v>
+        <v>0.09240535738593869</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>189345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165896</v>
+        <v>163545</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217455</v>
+        <v>215381</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1970934492311239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1726850872578823</v>
+        <v>0.1702373043786273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2263540689036357</v>
+        <v>0.2241949608026577</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>485</v>
@@ -1195,19 +1195,19 @@
         <v>514994</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>482993</v>
+        <v>485583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>546931</v>
+        <v>546321</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5318029081127995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4987570961036368</v>
+        <v>0.5014313364734891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5647825378566277</v>
+        <v>0.5641525408469181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>662</v>
@@ -1216,19 +1216,19 @@
         <v>704339</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>662673</v>
+        <v>662501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>743206</v>
+        <v>750934</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3651168280267832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3435180549680496</v>
+        <v>0.3434288104600516</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3852648694079353</v>
+        <v>0.3892707114439571</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>414240</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>382219</v>
+        <v>384317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>444345</v>
+        <v>447702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4311919504585057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3978604760667322</v>
+        <v>0.4000440979507471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.462529177770086</v>
+        <v>0.466023095287056</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>197</v>
@@ -1266,19 +1266,19 @@
         <v>213322</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188523</v>
+        <v>187619</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240327</v>
+        <v>239461</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.220284324778177</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1946758299837865</v>
+        <v>0.1937427977590564</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2481712020847331</v>
+        <v>0.2472767039647684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>589</v>
@@ -1287,19 +1287,19 @@
         <v>627562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587234</v>
+        <v>588825</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>672775</v>
+        <v>670219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3253168072851345</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3044114317855446</v>
+        <v>0.3052360899379561</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3487543138859107</v>
+        <v>0.3474296653646761</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>147824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>126816</v>
+        <v>125780</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173114</v>
+        <v>173267</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.15387382991851</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1320058636122095</v>
+        <v>0.1309276338001165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1801978425077867</v>
+        <v>0.1803580047424698</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -1337,19 +1337,19 @@
         <v>63252</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49914</v>
+        <v>49391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80477</v>
+        <v>80233</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06531612311317941</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05154318796808563</v>
+        <v>0.05100295752711718</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08310321139646368</v>
+        <v>0.0828514979809286</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>197</v>
@@ -1358,19 +1358,19 @@
         <v>211076</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>183387</v>
+        <v>183523</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>238084</v>
+        <v>241815</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1094180647138367</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09506462245378608</v>
+        <v>0.09513506148212514</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1234187095817191</v>
+        <v>0.1253527740703972</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>91264</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71990</v>
+        <v>72355</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111042</v>
+        <v>109952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09499891143369146</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07493577664932426</v>
+        <v>0.07531641082552901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1155858776351683</v>
+        <v>0.1144511929261181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -1408,19 +1408,19 @@
         <v>93446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75462</v>
+        <v>76630</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113957</v>
+        <v>113198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09649547761316814</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07792527629724197</v>
+        <v>0.07913113151413938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1176762464398592</v>
+        <v>0.1168930888693911</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -1429,19 +1429,19 @@
         <v>184710</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158153</v>
+        <v>159145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>213703</v>
+        <v>210450</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09575018421488847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08198393414789215</v>
+        <v>0.08249816120929818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1107798730309679</v>
+        <v>0.109093453952903</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>118012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99055</v>
+        <v>97992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139489</v>
+        <v>140102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1228418589581689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1031086676167795</v>
+        <v>0.1020023877010228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1451969637111952</v>
+        <v>0.1458350746557708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -1479,19 +1479,19 @@
         <v>83380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67815</v>
+        <v>66010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102902</v>
+        <v>102998</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08610116638267593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07002887642116989</v>
+        <v>0.068164947269403</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1062604780824863</v>
+        <v>0.1063602041151863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>187</v>
@@ -1500,19 +1500,19 @@
         <v>201392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>177345</v>
+        <v>177467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>228149</v>
+        <v>231471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.104398115759357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09193267526427223</v>
+        <v>0.09199559145227135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1182682531653594</v>
+        <v>0.1199906543995361</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>108834</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89012</v>
+        <v>91220</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128455</v>
+        <v>129521</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1606179849348926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1313641618157715</v>
+        <v>0.1346229317932076</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1895751533020751</v>
+        <v>0.1911479654215592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>381</v>
@@ -1625,19 +1625,19 @@
         <v>376403</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>345696</v>
+        <v>350266</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>401300</v>
+        <v>402112</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5504244386591033</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.505520486726816</v>
+        <v>0.5122041383550168</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5868330245764914</v>
+        <v>0.5880196106309706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>484</v>
@@ -1646,19 +1646,19 @@
         <v>485237</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>449161</v>
+        <v>450163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>515850</v>
+        <v>521540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3564155646968767</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3299170498532143</v>
+        <v>0.3306534480951108</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3789018199695872</v>
+        <v>0.3830813053487483</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>241744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>215747</v>
+        <v>216028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>267744</v>
+        <v>268655</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3567675794177533</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.318402085998284</v>
+        <v>0.3188167052699166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3951393140266858</v>
+        <v>0.3964834462036436</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>132</v>
@@ -1696,19 +1696,19 @@
         <v>131293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110986</v>
+        <v>111204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152701</v>
+        <v>150713</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.191994078254992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1622975722962029</v>
+        <v>0.162617444642142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2232988419800455</v>
+        <v>0.2203913231973427</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -1717,19 +1717,19 @@
         <v>373037</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>339880</v>
+        <v>341519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407187</v>
+        <v>406277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2740027805583615</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2496485583738107</v>
+        <v>0.250851963154417</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2990867225043803</v>
+        <v>0.2984184906616836</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>122231</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102933</v>
+        <v>104492</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144420</v>
+        <v>144883</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1803895344676836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1519096009349946</v>
+        <v>0.1542104669356853</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2131363567224375</v>
+        <v>0.2138204574306785</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1767,19 +1767,19 @@
         <v>19469</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11707</v>
+        <v>12374</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28298</v>
+        <v>29918</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02847072755190619</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01711936218175315</v>
+        <v>0.01809414217744398</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04138107192229538</v>
+        <v>0.04374967509344893</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>139</v>
@@ -1788,19 +1788,19 @@
         <v>141700</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119281</v>
+        <v>119015</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165932</v>
+        <v>165302</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1040815759147903</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08761416927800419</v>
+        <v>0.08741879448803053</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1218802411806551</v>
+        <v>0.121417111636607</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>90612</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72205</v>
+        <v>74241</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111274</v>
+        <v>112106</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1337267028418281</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1065610194326685</v>
+        <v>0.1095655847462277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1642190276225924</v>
+        <v>0.1654478496517275</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -1838,19 +1838,19 @@
         <v>98420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82119</v>
+        <v>81497</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117243</v>
+        <v>117363</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1439221727880398</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1200842373832574</v>
+        <v>0.1191749134508618</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1714482809689898</v>
+        <v>0.1716238360737823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>182</v>
@@ -1859,19 +1859,19 @@
         <v>189032</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>164465</v>
+        <v>161232</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>215303</v>
+        <v>214722</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.138847829803509</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.120802342438241</v>
+        <v>0.1184282969579083</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.158144488456888</v>
+        <v>0.1577173688918642</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>114173</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94617</v>
+        <v>94451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135020</v>
+        <v>136107</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1684981983378424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1396366608096379</v>
+        <v>0.1393922950248379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1992642766242038</v>
+        <v>0.2008686637170848</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -1909,19 +1909,19 @@
         <v>58255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44158</v>
+        <v>45942</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73234</v>
+        <v>74647</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08518858274595868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06457386024354066</v>
+        <v>0.06718165099319739</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1070928355886118</v>
+        <v>0.1091589733334629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>164</v>
@@ -1930,19 +1930,19 @@
         <v>172429</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>150416</v>
+        <v>151393</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>198745</v>
+        <v>201081</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1266522490264625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1104832532700976</v>
+        <v>0.1112009142034132</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1459816724234994</v>
+        <v>0.1476978104702074</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>190012</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>169314</v>
+        <v>165481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>216956</v>
+        <v>214284</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2023647827015249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.180321967232329</v>
+        <v>0.1762394023272792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2310607737564058</v>
+        <v>0.2282151786797602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>496</v>
@@ -2055,19 +2055,19 @@
         <v>515735</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>481858</v>
+        <v>484332</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>547570</v>
+        <v>549979</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4970753565915154</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.464423872501165</v>
+        <v>0.4668085659234973</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5277586717781011</v>
+        <v>0.5300804540270802</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>702</v>
@@ -2076,19 +2076,19 @@
         <v>705746</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>665376</v>
+        <v>666274</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>749437</v>
+        <v>754125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3570698282796119</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3366446984084062</v>
+        <v>0.3370991108378887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3791748046033404</v>
+        <v>0.3815469029836686</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>276792</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>250034</v>
+        <v>250786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>303822</v>
+        <v>302738</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2947870912629949</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2662888746117265</v>
+        <v>0.2670904318334433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3235743422506126</v>
+        <v>0.322419276040856</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>193</v>
@@ -2126,19 +2126,19 @@
         <v>201530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>175721</v>
+        <v>175460</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>227404</v>
+        <v>229198</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1942383181382012</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1693633549624378</v>
+        <v>0.1691115257375573</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2191761185059683</v>
+        <v>0.2209056812069881</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>488</v>
@@ -2147,19 +2147,19 @@
         <v>478322</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>443035</v>
+        <v>438051</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>519313</v>
+        <v>517257</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2420051285265698</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.224151724790312</v>
+        <v>0.2216302292581251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2627445837848668</v>
+        <v>0.2617044396480067</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>167973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>147352</v>
+        <v>143839</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>192267</v>
+        <v>191902</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1788929348261983</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1569322525499717</v>
+        <v>0.1531905898216818</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2047669736117102</v>
+        <v>0.2043782834807503</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2197,19 +2197,19 @@
         <v>47486</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35524</v>
+        <v>35052</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62483</v>
+        <v>61858</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0457681923359119</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03423860090872932</v>
+        <v>0.03378332988870116</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06022236686765008</v>
+        <v>0.05961954287027638</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>223</v>
@@ -2218,19 +2218,19 @@
         <v>215459</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>188061</v>
+        <v>189785</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>241739</v>
+        <v>242722</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.109010578442818</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0951490002381168</v>
+        <v>0.0960211810031016</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1223067391123733</v>
+        <v>0.1228041307578314</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>130949</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110115</v>
+        <v>109307</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>154834</v>
+        <v>151404</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1394621860546021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1172735418832728</v>
+        <v>0.1164128908745415</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1649006676647639</v>
+        <v>0.161247430899881</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>140</v>
@@ -2268,19 +2268,19 @@
         <v>145228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>124297</v>
+        <v>122847</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>168977</v>
+        <v>168797</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1399734900783735</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1197999613517088</v>
+        <v>0.1184026832770535</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1628633253969478</v>
+        <v>0.1626900377115035</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>277</v>
@@ -2289,19 +2289,19 @@
         <v>276177</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>247605</v>
+        <v>246265</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>309782</v>
+        <v>304399</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.139730589428318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1252748940550774</v>
+        <v>0.1245970173969072</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1567328709490781</v>
+        <v>0.1540093784599504</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>173231</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>150717</v>
+        <v>149703</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>200048</v>
+        <v>197972</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1844930051546797</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1605158967830197</v>
+        <v>0.1594358380530742</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.213053299577013</v>
+        <v>0.2108421994706108</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>121</v>
@@ -2339,19 +2339,19 @@
         <v>127560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>108307</v>
+        <v>107324</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>150986</v>
+        <v>151186</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.122944642855998</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1043886292317535</v>
+        <v>0.1034410040568275</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1455234442224067</v>
+        <v>0.1457160627832352</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -2360,19 +2360,19 @@
         <v>300791</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>270656</v>
+        <v>271012</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>336373</v>
+        <v>334132</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1521838753226823</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1369376032237563</v>
+        <v>0.1371175460742148</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1701864796108028</v>
+        <v>0.1690526868900778</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>648756</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>602195</v>
+        <v>606639</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>691260</v>
+        <v>695937</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1983847212091555</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.184146777522632</v>
+        <v>0.1855057302283812</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2113822699321857</v>
+        <v>0.2128124386199147</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1777</v>
@@ -2485,19 +2485,19 @@
         <v>1817511</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1757984</v>
+        <v>1761370</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1875202</v>
+        <v>1878090</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5380239091029176</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.52040256512419</v>
+        <v>0.521404779100636</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5551016050407737</v>
+        <v>0.5559563848581744</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2423</v>
@@ -2506,19 +2506,19 @@
         <v>2466267</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2394650</v>
+        <v>2382493</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2544317</v>
+        <v>2546701</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3709613016211026</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3601890327768135</v>
+        <v>0.3583604102548092</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3827010289644281</v>
+        <v>0.3830597388307995</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>1238334</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1184453</v>
+        <v>1187668</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1292914</v>
+        <v>1296999</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3786735374054787</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3621968929453995</v>
+        <v>0.3631802343613117</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.395363478928649</v>
+        <v>0.3966128429429365</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>694</v>
@@ -2556,19 +2556,19 @@
         <v>714285</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>667761</v>
+        <v>663507</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>765305</v>
+        <v>760636</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2114443798158261</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1976720105631679</v>
+        <v>0.1964128973838788</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2265472407222019</v>
+        <v>0.2251653020781908</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1918</v>
@@ -2577,19 +2577,19 @@
         <v>1952620</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1877374</v>
+        <v>1883791</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2020753</v>
+        <v>2032151</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2937014929810288</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2823834888461302</v>
+        <v>0.2833486952446791</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3039496583396399</v>
+        <v>0.3056640736485651</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>542389</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>497538</v>
+        <v>500139</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>583059</v>
+        <v>587001</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1658586612114389</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1521435694489156</v>
+        <v>0.1529387358371154</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1782951467433853</v>
+        <v>0.1795005022165331</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>164</v>
@@ -2627,19 +2627,19 @@
         <v>167782</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>143649</v>
+        <v>144082</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>195089</v>
+        <v>194677</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04966720613773127</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04252333532440263</v>
+        <v>0.04265142330355835</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05775068249699374</v>
+        <v>0.05762866475493269</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>696</v>
@@ -2648,19 +2648,19 @@
         <v>710171</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>662895</v>
+        <v>659724</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>764623</v>
+        <v>764385</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1068197613893694</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09970873683464608</v>
+        <v>0.0992317676837436</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1150101231109863</v>
+        <v>0.1149743197103804</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>366934</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>329434</v>
+        <v>328264</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>402205</v>
+        <v>405808</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.112205753879732</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1007385357954809</v>
+        <v>0.1003808368423775</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1229912155169687</v>
+        <v>0.1240932094269304</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>363</v>
@@ -2698,19 +2698,19 @@
         <v>371865</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>338291</v>
+        <v>336154</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>412466</v>
+        <v>408665</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1100802864128136</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1001415546490606</v>
+        <v>0.09950913972909511</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1220990221125172</v>
+        <v>0.1209740530786943</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>713</v>
@@ -2719,19 +2719,19 @@
         <v>738799</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>689578</v>
+        <v>690485</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>788593</v>
+        <v>792597</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1111257668809044</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1037222759736088</v>
+        <v>0.1038586732222897</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1186154340965309</v>
+        <v>0.1192177924142108</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>473776</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>436848</v>
+        <v>431490</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>517742</v>
+        <v>515544</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1448773262941949</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1335849760670767</v>
+        <v>0.1319465029270636</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1583215880293292</v>
+        <v>0.1576496145042151</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>298</v>
@@ -2769,19 +2769,19 @@
         <v>306680</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>273179</v>
+        <v>274460</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>342484</v>
+        <v>341997</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09078421853071142</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08086717934426185</v>
+        <v>0.08124616787906883</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1013828426995631</v>
+        <v>0.1012387987283136</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>753</v>
@@ -2790,19 +2790,19 @@
         <v>780457</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>730146</v>
+        <v>730605</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>832971</v>
+        <v>834189</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1173916771275948</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.109824258788533</v>
+        <v>0.1098932960248461</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1252904875461933</v>
+        <v>0.1254736918579868</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>182541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>158980</v>
+        <v>157805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205953</v>
+        <v>204706</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.259486936104556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2259950116282398</v>
+        <v>0.2243246165489469</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2927669986947492</v>
+        <v>0.2909949096842361</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>394</v>
@@ -3155,19 +3155,19 @@
         <v>421164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>391108</v>
+        <v>394878</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>447513</v>
+        <v>448060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6058888986761086</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5626504438660787</v>
+        <v>0.5680733959202926</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6437945345875903</v>
+        <v>0.6445807224376386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>573</v>
@@ -3176,19 +3176,19 @@
         <v>603705</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>566410</v>
+        <v>564649</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>640388</v>
+        <v>639377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4316537861347867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4049875757252439</v>
+        <v>0.4037279917710656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4578820676786652</v>
+        <v>0.4571591128790255</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>258342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231785</v>
+        <v>233027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284255</v>
+        <v>283960</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3672403967000333</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3294881895025001</v>
+        <v>0.3312537892624556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4040759391136244</v>
+        <v>0.403657067668655</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -3226,19 +3226,19 @@
         <v>131241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110325</v>
+        <v>111489</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152348</v>
+        <v>154433</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1888043697138367</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1587145569980784</v>
+        <v>0.1603887831613905</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2191684277361383</v>
+        <v>0.2221683941014541</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>372</v>
@@ -3247,19 +3247,19 @@
         <v>389584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>355432</v>
+        <v>356560</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>424765</v>
+        <v>425624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2785550772807559</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2541362381170706</v>
+        <v>0.2549433572696748</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3037103475442547</v>
+        <v>0.3043242099157465</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>139386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120377</v>
+        <v>117029</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161244</v>
+        <v>162009</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1981405103628905</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1711195047696508</v>
+        <v>0.1663604943513023</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2292124587309738</v>
+        <v>0.2302998010641526</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -3297,19 +3297,19 @@
         <v>56073</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42501</v>
+        <v>43213</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72606</v>
+        <v>71830</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08066714162881748</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06114217393177756</v>
+        <v>0.0621665107470465</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.104451309537066</v>
+        <v>0.103334387781624</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>186</v>
@@ -3318,19 +3318,19 @@
         <v>195459</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169963</v>
+        <v>168156</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>225484</v>
+        <v>222211</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1397545251703052</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1215248426717252</v>
+        <v>0.1202329598435841</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1612226688926079</v>
+        <v>0.1588825539677527</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>60402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45943</v>
+        <v>45334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79275</v>
+        <v>78429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0858634182960261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06530946584881073</v>
+        <v>0.06444295231190669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1126913541593832</v>
+        <v>0.1114890978308778</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3368,19 +3368,19 @@
         <v>35083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24791</v>
+        <v>24339</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49350</v>
+        <v>47620</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05047073789714929</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0356637303150287</v>
+        <v>0.03501470645127212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07099578842818396</v>
+        <v>0.06850612896671716</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -3389,19 +3389,19 @@
         <v>95485</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76535</v>
+        <v>76218</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119768</v>
+        <v>119479</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06827273765101489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05472321586825864</v>
+        <v>0.05449652487799625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0856350746862115</v>
+        <v>0.08542811001246312</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>62798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49291</v>
+        <v>47889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80339</v>
+        <v>78913</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08926873853649415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07006816709203385</v>
+        <v>0.06807539399238953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1142038177426523</v>
+        <v>0.1121764641255101</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -3439,19 +3439,19 @@
         <v>51556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38034</v>
+        <v>37651</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67677</v>
+        <v>67892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07416885208408788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05471534180429521</v>
+        <v>0.0541646742385978</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09735983543830358</v>
+        <v>0.09767044654363015</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -3460,19 +3460,19 @@
         <v>114354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95196</v>
+        <v>94059</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>136685</v>
+        <v>137116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08176387376313725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06806617582825863</v>
+        <v>0.06725259864788613</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09773053017105847</v>
+        <v>0.09803883632268229</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>275336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246179</v>
+        <v>247125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>303501</v>
+        <v>305844</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2704812645746333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2418388549674948</v>
+        <v>0.2427676663241485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2981497752537233</v>
+        <v>0.3004518887295587</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>508</v>
@@ -3585,19 +3585,19 @@
         <v>551792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>514781</v>
+        <v>519915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>584453</v>
+        <v>584155</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5356614985017562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4997328746936963</v>
+        <v>0.5047168208206188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5673681502721392</v>
+        <v>0.567078218058986</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>768</v>
@@ -3606,19 +3606,19 @@
         <v>827127</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>777576</v>
+        <v>780146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>871693</v>
+        <v>875052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4038589885932412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3796646934498031</v>
+        <v>0.3809195162157618</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4256189352555908</v>
+        <v>0.4272589314722379</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>346187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>317557</v>
+        <v>313081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>377148</v>
+        <v>378170</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3400835793649767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3119578272307166</v>
+        <v>0.3075616841257178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3704984977875829</v>
+        <v>0.3715030153389099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>205</v>
@@ -3656,19 +3656,19 @@
         <v>223610</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>197730</v>
+        <v>197396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>253462</v>
+        <v>251322</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2170735732793813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1919501309521039</v>
+        <v>0.1916257886333168</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2460529405938055</v>
+        <v>0.2439748017996587</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>529</v>
@@ -3677,19 +3677,19 @@
         <v>569797</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>527159</v>
+        <v>526729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>609765</v>
+        <v>613144</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2782132265100925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2573945273839974</v>
+        <v>0.2571844446042718</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.297728266356386</v>
+        <v>0.2993778867681759</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>170264</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>147061</v>
+        <v>145695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>196223</v>
+        <v>198013</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1672625698151514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1444680008915173</v>
+        <v>0.1431260478649098</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.192763055467108</v>
+        <v>0.1945223492254183</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>80</v>
@@ -3727,19 +3727,19 @@
         <v>88362</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69106</v>
+        <v>72286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109744</v>
+        <v>109936</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08577918307054827</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06708600100214955</v>
+        <v>0.07017271960772466</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1065359789555348</v>
+        <v>0.1067224801144467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>233</v>
@@ -3748,19 +3748,19 @@
         <v>258627</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>227198</v>
+        <v>228020</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>291557</v>
+        <v>290122</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1262788640978168</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1109331609604966</v>
+        <v>0.1113346967361157</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1423577682431864</v>
+        <v>0.1416570798300641</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>105662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84374</v>
+        <v>86067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126615</v>
+        <v>129164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1037994679481661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08288664904616375</v>
+        <v>0.08454956357494042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1243830103836124</v>
+        <v>0.1268863897731193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3798,19 +3798,19 @@
         <v>90841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72105</v>
+        <v>72738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109507</v>
+        <v>112518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08818532574420795</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06999692054669773</v>
+        <v>0.07061179081944964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1063060698149931</v>
+        <v>0.1092284183698508</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>172</v>
@@ -3819,19 +3819,19 @@
         <v>196503</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167758</v>
+        <v>169384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225730</v>
+        <v>228010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09594602156256873</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08191085296219375</v>
+        <v>0.08270443126763175</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1102164556194779</v>
+        <v>0.1113296201003609</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>120498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99375</v>
+        <v>99508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141799</v>
+        <v>144625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1183731182970725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09762260572518935</v>
+        <v>0.09775344632539913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1392985232016804</v>
+        <v>0.1420753364730018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -3869,19 +3869,19 @@
         <v>75508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59545</v>
+        <v>57919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95962</v>
+        <v>95803</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07330041940410634</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05780434649209079</v>
+        <v>0.05622603883303966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0931566682068503</v>
+        <v>0.09300259727303693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -3890,19 +3890,19 @@
         <v>196005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170294</v>
+        <v>167562</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>226926</v>
+        <v>226962</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09570289923628081</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0831487356373663</v>
+        <v>0.08181482197196616</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1108005353115812</v>
+        <v>0.1108180285136079</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>138836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118031</v>
+        <v>118494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162902</v>
+        <v>162072</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1839740486230729</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1564057461629836</v>
+        <v>0.1570186956549857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2158646202950733</v>
+        <v>0.2147645003398331</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>368</v>
@@ -4015,19 +4015,19 @@
         <v>403301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>374376</v>
+        <v>373507</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>434851</v>
+        <v>432245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5203610328349255</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4830407810261975</v>
+        <v>0.481919441121243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5610689602543943</v>
+        <v>0.5577053490844509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>501</v>
@@ -4036,19 +4036,19 @@
         <v>542137</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>502390</v>
+        <v>499031</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>582701</v>
+        <v>581974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.354409804074785</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3284260282931267</v>
+        <v>0.3262300946222936</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.380927788514295</v>
+        <v>0.3804522612823141</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>276764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>247223</v>
+        <v>249612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>306019</v>
+        <v>304988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3667457823664618</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3275999953406115</v>
+        <v>0.3307660801093992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4055112278569706</v>
+        <v>0.4041452081771617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -4086,19 +4086,19 @@
         <v>181726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158667</v>
+        <v>156681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208544</v>
+        <v>204858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2344721842316766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.204721250365014</v>
+        <v>0.2021579384277515</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.269074489728835</v>
+        <v>0.2643188146694883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>419</v>
@@ -4107,19 +4107,19 @@
         <v>458490</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423465</v>
+        <v>420590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>499197</v>
+        <v>496408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2997272837844231</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2768302910619799</v>
+        <v>0.2749510386864586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.326338618013957</v>
+        <v>0.3245153319715249</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>139144</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>118238</v>
+        <v>118194</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>163138</v>
+        <v>164441</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.184381959593621</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.156678930950768</v>
+        <v>0.1566214328692984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2161767301734148</v>
+        <v>0.2179045836084343</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -4157,19 +4157,19 @@
         <v>50506</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38024</v>
+        <v>37993</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>68233</v>
+        <v>66361</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06516525607305826</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0490601239888943</v>
+        <v>0.04902004205471831</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08803763110888629</v>
+        <v>0.08562237040228501</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>175</v>
@@ -4178,19 +4178,19 @@
         <v>189649</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>163571</v>
+        <v>163138</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>218118</v>
+        <v>216237</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1239789419959087</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1069305011821349</v>
+        <v>0.1066479856380394</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1425896118030229</v>
+        <v>0.1413598795973864</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>100726</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81032</v>
+        <v>81295</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122498</v>
+        <v>123346</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1334736127023576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1073775910668773</v>
+        <v>0.1077251167040114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1623242376971247</v>
+        <v>0.1634484015498124</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4228,19 +4228,19 @@
         <v>72262</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57156</v>
+        <v>55958</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94368</v>
+        <v>90558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09323582367003143</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07374577799482974</v>
+        <v>0.07219985954300924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1217592666648341</v>
+        <v>0.1168434828781899</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -4249,19 +4249,19 @@
         <v>172987</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>150025</v>
+        <v>145207</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202963</v>
+        <v>200015</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1130865041241254</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09807562001525844</v>
+        <v>0.09492608687422183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1326823332874361</v>
+        <v>0.130755213756036</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>99179</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>79207</v>
+        <v>78667</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121229</v>
+        <v>122154</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1314245967144868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1049593469510378</v>
+        <v>0.1042429158733647</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1606430810578095</v>
+        <v>0.1618686295141861</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -4299,19 +4299,19 @@
         <v>67247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50690</v>
+        <v>52266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86416</v>
+        <v>88385</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08676570319030827</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06540249607151348</v>
+        <v>0.06743668189784661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1114990762622738</v>
+        <v>0.1140392816438006</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>145</v>
@@ -4320,19 +4320,19 @@
         <v>166426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142702</v>
+        <v>140824</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193958</v>
+        <v>197001</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1087974660207578</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09328820439015437</v>
+        <v>0.09206032439469974</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1267956130872343</v>
+        <v>0.1287848480995207</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>180766</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>157031</v>
+        <v>155935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>205435</v>
+        <v>208011</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1911156568984066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1660219820427155</v>
+        <v>0.1648635109216512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2171972575047539</v>
+        <v>0.2199208437274003</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>477</v>
@@ -4445,19 +4445,19 @@
         <v>494615</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>461745</v>
+        <v>458490</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>528767</v>
+        <v>523947</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4711284555774463</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4398195162127583</v>
+        <v>0.4367187824399075</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5036582861390255</v>
+        <v>0.4990672745720615</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>657</v>
@@ -4466,19 +4466,19 @@
         <v>675381</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>632565</v>
+        <v>636183</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>714878</v>
+        <v>721658</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3384185784726359</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3169645394222012</v>
+        <v>0.3187772738397362</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3582094346538506</v>
+        <v>0.3616068930092233</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>277716</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247247</v>
+        <v>247469</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>305203</v>
+        <v>307744</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2936164979236112</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2614036138061471</v>
+        <v>0.2616376377005185</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3226775271837272</v>
+        <v>0.3253643178608662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>217</v>
@@ -4516,19 +4516,19 @@
         <v>230080</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>201194</v>
+        <v>203252</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>257728</v>
+        <v>258338</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2191547137432738</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1916407713003293</v>
+        <v>0.1936003535211261</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2454899659800867</v>
+        <v>0.2460706342202074</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>474</v>
@@ -4537,19 +4537,19 @@
         <v>507796</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>466487</v>
+        <v>473235</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>548306</v>
+        <v>551460</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2544452942960019</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.233746220460613</v>
+        <v>0.2371274867858899</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2747440681341082</v>
+        <v>0.2763242438911878</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>180621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>158160</v>
+        <v>159500</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>207517</v>
+        <v>207821</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1909626636479438</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1672157518901531</v>
+        <v>0.1686325517505821</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2193989407811093</v>
+        <v>0.2197199143534975</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -4587,19 +4587,19 @@
         <v>65188</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50782</v>
+        <v>50514</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>81750</v>
+        <v>80565</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06209273800577035</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0483707026874096</v>
+        <v>0.04811576509886656</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07786801831799686</v>
+        <v>0.07673909606980549</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>241</v>
@@ -4608,19 +4608,19 @@
         <v>245809</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>215336</v>
+        <v>216301</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>276170</v>
+        <v>276757</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1231696319019032</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.107899954592141</v>
+        <v>0.1083834858080432</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1383827530981621</v>
+        <v>0.1386768269628018</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>152007</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>129415</v>
+        <v>132258</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>176323</v>
+        <v>177061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1607098353005607</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1368243299356984</v>
+        <v>0.1398305606321308</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1864181359652581</v>
+        <v>0.1871985210433089</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>131</v>
@@ -4658,19 +4658,19 @@
         <v>139825</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116203</v>
+        <v>118753</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>161176</v>
+        <v>164674</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.133185829444507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1106847678517667</v>
+        <v>0.1131143372386766</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.15352214362418</v>
+        <v>0.1568541075282458</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>275</v>
@@ -4679,19 +4679,19 @@
         <v>291832</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>261276</v>
+        <v>262830</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>326573</v>
+        <v>326602</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1462306168678699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1309195144579385</v>
+        <v>0.1316982189315616</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1636383944853938</v>
+        <v>0.1636531315122961</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>154736</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132789</v>
+        <v>133741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>179268</v>
+        <v>179417</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1635953462294777</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1403922101239438</v>
+        <v>0.1413982632500604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1895318255190491</v>
+        <v>0.1896895203312388</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>111</v>
@@ -4729,19 +4729,19 @@
         <v>120143</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100069</v>
+        <v>100428</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>142485</v>
+        <v>141512</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1144382632290025</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09531689935213696</v>
+        <v>0.09565900900864779</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1357193151662581</v>
+        <v>0.1347925819761695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>262</v>
@@ -4750,19 +4750,19 @@
         <v>274879</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>245934</v>
+        <v>242495</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>309262</v>
+        <v>304462</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1377358784615892</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1232318429328304</v>
+        <v>0.1215090767040568</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1549641188145116</v>
+        <v>0.1525590304881404</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>777478</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>728019</v>
+        <v>729099</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>826454</v>
+        <v>831126</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2272059299690968</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2127522125209493</v>
+        <v>0.2130679118841298</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.241518263451437</v>
+        <v>0.242883765274617</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1747</v>
@@ -4875,19 +4875,19 @@
         <v>1870873</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1811086</v>
+        <v>1804860</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1934083</v>
+        <v>1932163</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5269879166823536</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5101472057944436</v>
+        <v>0.5083934611281142</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5447930230643241</v>
+        <v>0.5442520920374032</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2499</v>
@@ -4896,19 +4896,19 @@
         <v>2648351</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2566829</v>
+        <v>2566256</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2736637</v>
+        <v>2729197</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3798534095438652</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3681606573942213</v>
+        <v>0.368078457265704</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.392516278648103</v>
+        <v>0.3914491298898123</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>1159009</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1094578</v>
+        <v>1099933</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1218424</v>
+        <v>1217024</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3387024500773707</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3198734597570298</v>
+        <v>0.32143822943869</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3560654609622114</v>
+        <v>0.3556563094937278</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>711</v>
@@ -4946,19 +4946,19 @@
         <v>766657</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>712801</v>
+        <v>714672</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>818800</v>
+        <v>818033</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2159522300577737</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2007818560882123</v>
+        <v>0.2013090287204862</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2306397327275924</v>
+        <v>0.2304237291231089</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1794</v>
@@ -4967,19 +4967,19 @@
         <v>1925667</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1846190</v>
+        <v>1844511</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2003513</v>
+        <v>1992924</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2761986555409688</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2647992418584569</v>
+        <v>0.2645585016649836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2873642328002902</v>
+        <v>0.2858453515032263</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>629415</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>582457</v>
+        <v>580669</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>682925</v>
+        <v>675166</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1839367134303665</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1702141076529861</v>
+        <v>0.1696914221048689</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1995741962252868</v>
+        <v>0.1973066577229156</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>244</v>
@@ -5017,19 +5017,19 @@
         <v>260129</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>229418</v>
+        <v>232547</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>293971</v>
+        <v>295695</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07327331636788599</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06462247463503312</v>
+        <v>0.06550388216456894</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08280578803700396</v>
+        <v>0.08329150511061195</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>835</v>
@@ -5038,19 +5038,19 @@
         <v>889544</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>830180</v>
+        <v>829949</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>952715</v>
+        <v>944068</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1275874683407099</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1190728212053108</v>
+        <v>0.1190397232682267</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1366481045031778</v>
+        <v>0.1354078613392329</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>418797</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>380448</v>
+        <v>379133</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>459269</v>
+        <v>463513</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1223868939876587</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1111800395615946</v>
+        <v>0.1107956765581987</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1342142430133978</v>
+        <v>0.1354545208101333</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>305</v>
@@ -5088,19 +5088,19 @@
         <v>338011</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>300302</v>
+        <v>301367</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>376614</v>
+        <v>375220</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09521102845455413</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08458916847752938</v>
+        <v>0.08488911660024674</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1060846688492662</v>
+        <v>0.1056919618288282</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>680</v>
@@ -5109,19 +5109,19 @@
         <v>756808</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>704346</v>
+        <v>705490</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>821267</v>
+        <v>818463</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.108549079966968</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1010244780513008</v>
+        <v>0.1011885443001339</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1177944593706553</v>
+        <v>0.1173922787770394</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>437211</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>400522</v>
+        <v>400214</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>479456</v>
+        <v>483417</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1277680125355073</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1170462854900911</v>
+        <v>0.116956410852656</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1401134662446232</v>
+        <v>0.1412712425294883</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>283</v>
@@ -5159,19 +5159,19 @@
         <v>314454</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>278740</v>
+        <v>280045</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>347319</v>
+        <v>350872</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08857550843743264</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07851541328302394</v>
+        <v>0.07888325847460236</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09783298808065641</v>
+        <v>0.09883372953771047</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>687</v>
@@ -5180,19 +5180,19 @@
         <v>751665</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>700402</v>
+        <v>703262</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>807438</v>
+        <v>815290</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1078113866074881</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1004587576179483</v>
+        <v>0.1008689632014626</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1158109570490265</v>
+        <v>0.1169372193288615</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>267208</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>243239</v>
+        <v>242682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>294276</v>
+        <v>295729</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3959815158908212</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3604608753379147</v>
+        <v>0.3596356120290352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4360932592712805</v>
+        <v>0.4382468691995548</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>403</v>
@@ -5545,19 +5545,19 @@
         <v>413364</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>387844</v>
+        <v>386761</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>437784</v>
+        <v>437817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6161184592924359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5780804299011111</v>
+        <v>0.5764662061329192</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6525161082536104</v>
+        <v>0.6525651575649941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>665</v>
@@ -5566,19 +5566,19 @@
         <v>680573</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>645293</v>
+        <v>644117</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>713251</v>
+        <v>717379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.505732415281167</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4795164800908895</v>
+        <v>0.4786419081747375</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5300158166033984</v>
+        <v>0.5330829745704233</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>219520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195899</v>
+        <v>195365</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245388</v>
+        <v>244395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3253113138680807</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2903063661196503</v>
+        <v>0.2895160964294051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3636461144495137</v>
+        <v>0.3621741546290239</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -5616,19 +5616,19 @@
         <v>159429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139150</v>
+        <v>138908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>182231</v>
+        <v>181841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2376280029676003</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2074032045279769</v>
+        <v>0.2070412693870275</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2716142007539202</v>
+        <v>0.2710334506901572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>374</v>
@@ -5637,19 +5637,19 @@
         <v>378949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>346890</v>
+        <v>346638</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>412074</v>
+        <v>414120</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2815961514598593</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2577736008227686</v>
+        <v>0.2575858190296321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3062116402110063</v>
+        <v>0.3077320400002883</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>94304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75943</v>
+        <v>76450</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114105</v>
+        <v>114091</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1397505609686882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1125412887726626</v>
+        <v>0.1132923129950291</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1690941448219578</v>
+        <v>0.1690743518084878</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -5687,19 +5687,19 @@
         <v>28518</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19322</v>
+        <v>18988</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39719</v>
+        <v>40029</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04250625370081762</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02879888234965129</v>
+        <v>0.0283021816370507</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05920162097128678</v>
+        <v>0.05966358431390132</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>115</v>
@@ -5708,19 +5708,19 @@
         <v>122822</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>103924</v>
+        <v>103009</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>144794</v>
+        <v>147264</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09126869318982615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07722575496011098</v>
+        <v>0.07654567432578015</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1075961874928893</v>
+        <v>0.109431851631481</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>41982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30918</v>
+        <v>30158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55770</v>
+        <v>56433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06221330963299751</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04581844256876793</v>
+        <v>0.04469244241464906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08264641117433186</v>
+        <v>0.08362885807832257</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -5758,19 +5758,19 @@
         <v>30456</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21160</v>
+        <v>21208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41008</v>
+        <v>42209</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04539391876444698</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03153838777588593</v>
+        <v>0.03161097772627959</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06112232345794678</v>
+        <v>0.06291302981121649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -5779,19 +5779,19 @@
         <v>72437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57046</v>
+        <v>57142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89641</v>
+        <v>88599</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0538278780625524</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04239075438412401</v>
+        <v>0.0424618009110606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06661202668828346</v>
+        <v>0.06583803613902127</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>51786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39007</v>
+        <v>37396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68048</v>
+        <v>66416</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07674329963941237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0578056489566718</v>
+        <v>0.05541774178940975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1008423849442554</v>
+        <v>0.09842382630367653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -5829,19 +5829,19 @@
         <v>39150</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28130</v>
+        <v>28593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51757</v>
+        <v>52688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05835336527469916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04192842117446245</v>
+        <v>0.04261741245889902</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0771435722875335</v>
+        <v>0.07853112378141305</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -5850,19 +5850,19 @@
         <v>90937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75732</v>
+        <v>74153</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>113148</v>
+        <v>111396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06757486200659524</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05627641592023681</v>
+        <v>0.05510313089141806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0840800234679089</v>
+        <v>0.08277792389244586</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>293842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>264536</v>
+        <v>262232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322688</v>
+        <v>323581</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2878095660164345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2591052144683748</v>
+        <v>0.2568486216172906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3160634039135376</v>
+        <v>0.3169384504285983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>502</v>
@@ -5975,19 +5975,19 @@
         <v>540842</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>507721</v>
+        <v>506282</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>571658</v>
+        <v>575450</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5207654457731185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4888740849510533</v>
+        <v>0.4874880503130017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5504371512616124</v>
+        <v>0.5540887275294997</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>779</v>
@@ -5996,19 +5996,19 @@
         <v>834684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>789728</v>
+        <v>793802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>882413</v>
+        <v>886010</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4052824800010124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3834541545289188</v>
+        <v>0.3854323140594793</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4284573097675676</v>
+        <v>0.4302040395910938</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>352861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322564</v>
+        <v>322868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>382632</v>
+        <v>385993</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3456168377932523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3159425168751519</v>
+        <v>0.3162395498981287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3747767796862759</v>
+        <v>0.3780689605898804</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -6046,19 +6046,19 @@
         <v>253739</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228012</v>
+        <v>227148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>282762</v>
+        <v>284649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2443196062045195</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2195476503048299</v>
+        <v>0.2187158008456407</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2722655854527807</v>
+        <v>0.274082226796393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -6067,19 +6067,19 @@
         <v>606599</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>566398</v>
+        <v>565744</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649863</v>
+        <v>646946</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2945355730244558</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2750157639135805</v>
+        <v>0.2746982009549777</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3155422016497877</v>
+        <v>0.3141260037816874</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>153245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>131248</v>
+        <v>130649</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>177861</v>
+        <v>176718</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1500988026508742</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1285536352489807</v>
+        <v>0.1279670245482843</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1742098274521451</v>
+        <v>0.1730902065279538</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -6117,19 +6117,19 @@
         <v>56746</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41705</v>
+        <v>43770</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74155</v>
+        <v>74901</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05463916152360934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04015661378127985</v>
+        <v>0.04214558629408853</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07140198521201693</v>
+        <v>0.07212074081281675</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>195</v>
@@ -6138,19 +6138,19 @@
         <v>209990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>181739</v>
+        <v>182691</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>236847</v>
+        <v>239162</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1019612659514164</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08824357502840061</v>
+        <v>0.08870614909769269</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.115001331483691</v>
+        <v>0.1161254864287541</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>108571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89840</v>
+        <v>88515</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131853</v>
+        <v>131619</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1063421976884566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0879954995123761</v>
+        <v>0.08669776218397188</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1291462608833646</v>
+        <v>0.1289169045033649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -6188,19 +6188,19 @@
         <v>94968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76884</v>
+        <v>76958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118109</v>
+        <v>116080</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09144305784377008</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07402962994346661</v>
+        <v>0.0741010235440471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.113724768324175</v>
+        <v>0.1117707728377508</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -6209,19 +6209,19 @@
         <v>203539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>176431</v>
+        <v>176085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>233837</v>
+        <v>233628</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09882899228987579</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08566638443911996</v>
+        <v>0.08549864779649478</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1135400625152425</v>
+        <v>0.113438776274888</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>112441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93896</v>
+        <v>92521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134008</v>
+        <v>136016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1101325958509824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09196863972610188</v>
+        <v>0.09062189510468226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1312567867199582</v>
+        <v>0.1332237883585277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -6259,19 +6259,19 @@
         <v>92257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>75713</v>
+        <v>73524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110938</v>
+        <v>111238</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08883272865498268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07290217853653766</v>
+        <v>0.07079467815227369</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1068198795396192</v>
+        <v>0.1071083051663569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -6280,19 +6280,19 @@
         <v>204698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>177456</v>
+        <v>178573</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>235140</v>
+        <v>233835</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09939168873323956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08616421453068626</v>
+        <v>0.08670667343311053</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1141725718192045</v>
+        <v>0.1135392192693706</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>169546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145857</v>
+        <v>146839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195310</v>
+        <v>194848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2247300200474725</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1933303414626429</v>
+        <v>0.1946320595549575</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2588801173948516</v>
+        <v>0.2582677877933142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>345</v>
@@ -6405,19 +6405,19 @@
         <v>380694</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>351168</v>
+        <v>352465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>410899</v>
+        <v>409491</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4871956021753842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4494088503611419</v>
+        <v>0.4510693781363839</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5258507659956078</v>
+        <v>0.5240482649839256</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>500</v>
@@ -6426,19 +6426,19 @@
         <v>550240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512318</v>
+        <v>511542</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>592666</v>
+        <v>591054</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3582662075751573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3335748261241963</v>
+        <v>0.3330697653238465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3858906960518694</v>
+        <v>0.3848407246335665</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>307695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>281074</v>
+        <v>280538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>335085</v>
+        <v>334721</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4078446491093119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3725581659112225</v>
+        <v>0.3718487549120166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4441500020584968</v>
+        <v>0.443666941893952</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -6476,19 +6476,19 @@
         <v>197030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175008</v>
+        <v>172906</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222747</v>
+        <v>221067</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2521507252580396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2239669441067095</v>
+        <v>0.2212779295801013</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2850615060173363</v>
+        <v>0.2829111949486378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>475</v>
@@ -6497,19 +6497,19 @@
         <v>504725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>468516</v>
+        <v>465802</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>545870</v>
+        <v>540143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3286313181888704</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3050555227317575</v>
+        <v>0.3032881178850049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3554214396035804</v>
+        <v>0.35169237048667</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>119561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>101451</v>
+        <v>96117</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141912</v>
+        <v>138495</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1584765144385751</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1344719682613837</v>
+        <v>0.1274009448290435</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1881021751946917</v>
+        <v>0.1835728470322414</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -6547,19 +6547,19 @@
         <v>35211</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24848</v>
+        <v>24616</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49642</v>
+        <v>48346</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04506169102953152</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03179899279872768</v>
+        <v>0.03150301422751514</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06352990027889477</v>
+        <v>0.06187148514775385</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>145</v>
@@ -6568,19 +6568,19 @@
         <v>154772</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>130050</v>
+        <v>131730</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>179466</v>
+        <v>180128</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1007737748855146</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08467675611594142</v>
+        <v>0.0857705411797845</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1168521949945989</v>
+        <v>0.1172832227548719</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>76863</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61917</v>
+        <v>59556</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96825</v>
+        <v>96282</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1018799559203687</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08206946654391577</v>
+        <v>0.07893982944720317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1283393305787549</v>
+        <v>0.1276200244022791</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>95</v>
@@ -6618,19 +6618,19 @@
         <v>97293</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80715</v>
+        <v>79326</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118123</v>
+        <v>116517</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1245119140915319</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1032948939145117</v>
+        <v>0.1015184651028647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1511686610880931</v>
+        <v>0.1491129952274513</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -6639,19 +6639,19 @@
         <v>174156</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149328</v>
+        <v>148660</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201207</v>
+        <v>200427</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1133945529428092</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09722919955441155</v>
+        <v>0.09679373771358989</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1310075536027484</v>
+        <v>0.1304996886834733</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>80777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63999</v>
+        <v>64319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99112</v>
+        <v>99230</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1070688604842718</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08483023616660808</v>
+        <v>0.08525359848414166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1313718279441142</v>
+        <v>0.1315272244116295</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -6689,19 +6689,19 @@
         <v>71170</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56070</v>
+        <v>56161</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87864</v>
+        <v>89058</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09108006744551279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07175566912545273</v>
+        <v>0.07187235042760547</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1124441622885997</v>
+        <v>0.1139731030475216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>140</v>
@@ -6710,19 +6710,19 @@
         <v>151947</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127929</v>
+        <v>129154</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>177702</v>
+        <v>178612</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09893414640764846</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08329570043508715</v>
+        <v>0.0840935256927452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1157033830864692</v>
+        <v>0.116295843762332</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>177255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154851</v>
+        <v>153741</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202922</v>
+        <v>203984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1894720697809498</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1655234370385935</v>
+        <v>0.1643375260206981</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2169083625424004</v>
+        <v>0.2180427519292654</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>441</v>
@@ -6835,19 +6835,19 @@
         <v>485368</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>452663</v>
+        <v>452517</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>517065</v>
+        <v>518699</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4663739521918776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4349484249849783</v>
+        <v>0.4348076727063793</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4968305492482579</v>
+        <v>0.4984001215976794</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>616</v>
@@ -6856,19 +6856,19 @@
         <v>662623</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>618488</v>
+        <v>621710</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>704228</v>
+        <v>706270</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.335293519790765</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3129606071956083</v>
+        <v>0.3145910856323484</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3563459455810645</v>
+        <v>0.3573789128801093</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>269563</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245313</v>
+        <v>242233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>297555</v>
+        <v>296887</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2881416013252635</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2622203803971481</v>
+        <v>0.2589279897065764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3180636830195234</v>
+        <v>0.3173491363473169</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>202</v>
@@ -6906,19 +6906,19 @@
         <v>215678</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>190032</v>
+        <v>190560</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>242721</v>
+        <v>245272</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2072378959906662</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1825954669323988</v>
+        <v>0.183102387371459</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2332220176131036</v>
+        <v>0.2356734052847834</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>475</v>
@@ -6927,19 +6927,19 @@
         <v>485241</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>445069</v>
+        <v>446276</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>527487</v>
+        <v>526566</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2455362729672926</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2252087487009599</v>
+        <v>0.2258198347748514</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2669130836766566</v>
+        <v>0.2664474383121151</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>154804</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>132232</v>
+        <v>134714</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>177637</v>
+        <v>178471</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1654733940100243</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1413463514940716</v>
+        <v>0.1439984728657363</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1898806237921853</v>
+        <v>0.1907716749719439</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -6977,19 +6977,19 @@
         <v>45648</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>32809</v>
+        <v>33946</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62576</v>
+        <v>61543</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04386145225507374</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03152512266363703</v>
+        <v>0.03261726544449541</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06012666882335064</v>
+        <v>0.0591342961889739</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>200</v>
@@ -6998,19 +6998,19 @@
         <v>200452</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>174161</v>
+        <v>176549</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>228598</v>
+        <v>228583</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.10143038523445</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08812691844970047</v>
+        <v>0.08933521062891121</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1156725900456194</v>
+        <v>0.1156652752476858</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>149812</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>128180</v>
+        <v>128727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>170592</v>
+        <v>174126</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1601374181155381</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1370146389482366</v>
+        <v>0.1375994549974064</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1823494298899496</v>
+        <v>0.1861277208638146</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>138</v>
@@ -7048,19 +7048,19 @@
         <v>149556</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>127323</v>
+        <v>128047</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174943</v>
+        <v>175018</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1437031986189251</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1223402332911994</v>
+        <v>0.1230362493176546</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1680968708248325</v>
+        <v>0.1681684487697346</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>285</v>
@@ -7069,19 +7069,19 @@
         <v>299368</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>269568</v>
+        <v>268521</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>329209</v>
+        <v>331745</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1514828662002164</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1364040091260148</v>
+        <v>0.1358740197953368</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1665829111067366</v>
+        <v>0.167866113798765</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>184088</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>162221</v>
+        <v>161005</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>210300</v>
+        <v>208908</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1967755167682244</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1734014543147387</v>
+        <v>0.1721015338160736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2247940702382231</v>
+        <v>0.2233069878524384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>134</v>
@@ -7119,19 +7119,19 @@
         <v>144478</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>123560</v>
+        <v>121288</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169640</v>
+        <v>167316</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1388235009434574</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1187242959690547</v>
+        <v>0.1165413015984754</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.163001268537314</v>
+        <v>0.1607686369975045</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>310</v>
@@ -7140,19 +7140,19 @@
         <v>328565</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>294718</v>
+        <v>294773</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>363633</v>
+        <v>361342</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1662569558072759</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1491299584292678</v>
+        <v>0.1491580013758404</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1840016926957407</v>
+        <v>0.1828425873444716</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>907851</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>857714</v>
+        <v>854056</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>964232</v>
+        <v>958094</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2681410285029135</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.253332552586395</v>
+        <v>0.2522522084265846</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2847936374323072</v>
+        <v>0.2829806902311381</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1691</v>
@@ -7265,19 +7265,19 @@
         <v>1820269</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1752635</v>
+        <v>1759526</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1881932</v>
+        <v>1883019</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5154239005327942</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4962727462091353</v>
+        <v>0.4982240028450519</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5328843504776281</v>
+        <v>0.5331921182039104</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2560</v>
@@ -7286,19 +7286,19 @@
         <v>2728120</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2651807</v>
+        <v>2644919</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2810054</v>
+        <v>2812193</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3943898382869567</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3833576119591019</v>
+        <v>0.3823618909791383</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4062345462877515</v>
+        <v>0.4065437657465955</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1149638</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1090515</v>
+        <v>1096972</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1208109</v>
+        <v>1214240</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3395548463066198</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3220922374090041</v>
+        <v>0.3239994680750224</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3568247257959137</v>
+        <v>0.3586354777732511</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>798</v>
@@ -7336,19 +7336,19 @@
         <v>825876</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>774678</v>
+        <v>773341</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>875513</v>
+        <v>877995</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.233853444498928</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2193563818963069</v>
+        <v>0.2189777127565972</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2479084565708612</v>
+        <v>0.2486112684152898</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1901</v>
@@ -7357,19 +7357,19 @@
         <v>1975514</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1898990</v>
+        <v>1897414</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2046864</v>
+        <v>2050701</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2855896199195957</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2745269298797436</v>
+        <v>0.2742991536323392</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2959042928138144</v>
+        <v>0.2964589348693019</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>521914</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>484641</v>
+        <v>478074</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>572740</v>
+        <v>567241</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1541513370381617</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1431426615284241</v>
+        <v>0.1412028530383994</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1691634407907166</v>
+        <v>0.1675391202191063</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>153</v>
@@ -7407,19 +7407,19 @@
         <v>166123</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140538</v>
+        <v>142767</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>192826</v>
+        <v>194517</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04703901046734452</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03979444477532484</v>
+        <v>0.04042556156848659</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05460027393395998</v>
+        <v>0.05507917628416903</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>655</v>
@@ -7428,19 +7428,19 @@
         <v>688036</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>641010</v>
+        <v>636901</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>740844</v>
+        <v>738280</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0994657713466917</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09266746637507041</v>
+        <v>0.09207343305384531</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1070999062697403</v>
+        <v>0.106729190658836</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>377227</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>341448</v>
+        <v>342143</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>419734</v>
+        <v>418392</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1114170057615965</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1008493434147549</v>
+        <v>0.1010547689661804</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1239717567323254</v>
+        <v>0.1235754292114226</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>352</v>
@@ -7478,19 +7478,19 @@
         <v>372273</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>338595</v>
+        <v>336227</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>413321</v>
+        <v>409076</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1054122026894796</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09587581258345222</v>
+        <v>0.09520534366992579</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1170351707011684</v>
+        <v>0.1158331182663785</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>706</v>
@@ -7499,19 +7499,19 @@
         <v>749500</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>697117</v>
+        <v>699049</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>802704</v>
+        <v>808555</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1083512890193924</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1007784924853244</v>
+        <v>0.1010578782555595</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.116042719313223</v>
+        <v>0.1168885395986381</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>429092</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>386662</v>
+        <v>391963</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>467987</v>
+        <v>472220</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1267357823907085</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1142036646965984</v>
+        <v>0.11576937671983</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1382238316504355</v>
+        <v>0.1394739054912069</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>332</v>
@@ -7549,19 +7549,19 @@
         <v>347055</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>312674</v>
+        <v>314210</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>386823</v>
+        <v>385492</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0982714418114537</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08853612086940575</v>
+        <v>0.08897123456830616</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1095321167272811</v>
+        <v>0.1091552650920433</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>728</v>
@@ -7570,19 +7570,19 @@
         <v>776147</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>725214</v>
+        <v>722548</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>831358</v>
+        <v>833016</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1122034814273635</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1048403966405907</v>
+        <v>0.1044548881301726</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1201850487083593</v>
+        <v>0.1204246610216733</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>203983</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>177279</v>
+        <v>180884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>234907</v>
+        <v>238148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3014238389604258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2619629774995899</v>
+        <v>0.2672910480522345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3471198858270884</v>
+        <v>0.3519091913292487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>671</v>
@@ -7935,19 +7935,19 @@
         <v>383310</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>361717</v>
+        <v>362175</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>404973</v>
+        <v>407182</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5327813415090566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5027691230756142</v>
+        <v>0.5034051992428569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5628930084948452</v>
+        <v>0.5659625265735517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>863</v>
@@ -7956,19 +7956,19 @@
         <v>587293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>550119</v>
+        <v>551210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>624700</v>
+        <v>623642</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4206419613391663</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3940166470451821</v>
+        <v>0.3947983167680559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4474342112184838</v>
+        <v>0.4466763992317686</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>263451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239148</v>
+        <v>236540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289015</v>
+        <v>288008</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3892982559398576</v>
+        <v>0.3892982559398575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.353387174225974</v>
+        <v>0.34953281997793</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4270746732738898</v>
+        <v>0.4255859406034288</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -8006,19 +8006,19 @@
         <v>168976</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>149552</v>
+        <v>151078</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187553</v>
+        <v>187771</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2348682531687407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2078704680855331</v>
+        <v>0.2099912165838483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2606888282885012</v>
+        <v>0.2609927976606309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>581</v>
@@ -8027,19 +8027,19 @@
         <v>432427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>402111</v>
+        <v>401519</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>464623</v>
+        <v>464496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3097207416319033</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2880074677354813</v>
+        <v>0.2875832541174603</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3327812046724592</v>
+        <v>0.3326899721687497</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>82877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67123</v>
+        <v>67762</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103174</v>
+        <v>102912</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1224663684293071</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09918704095952484</v>
+        <v>0.1001305299054112</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1524596828770239</v>
+        <v>0.1520716536157499</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>76</v>
@@ -8077,19 +8077,19 @@
         <v>44505</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34850</v>
+        <v>35203</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58672</v>
+        <v>57503</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06185998516313663</v>
+        <v>0.06185998516313661</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04844000141385711</v>
+        <v>0.04892978937088736</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08155054113118868</v>
+        <v>0.07992692056294928</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>170</v>
@@ -8098,19 +8098,19 @@
         <v>127382</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>107401</v>
+        <v>109272</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>150135</v>
+        <v>150508</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09123600357161071</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07692481934873303</v>
+        <v>0.07826465322422203</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1075323117710446</v>
+        <v>0.1077995730161498</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>56609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43529</v>
+        <v>44112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73188</v>
+        <v>72012</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08365117193045125</v>
+        <v>0.08365117193045124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06432188924269379</v>
+        <v>0.06518314617332102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.108149495284348</v>
+        <v>0.1064116937035215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -8148,19 +8148,19 @@
         <v>59021</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48324</v>
+        <v>46835</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74148</v>
+        <v>72640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08203580918152739</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06716763319507535</v>
+        <v>0.06509901737486354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1030624917386456</v>
+        <v>0.1009663356326553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>151</v>
@@ -8169,19 +8169,19 @@
         <v>115630</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96719</v>
+        <v>95759</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135686</v>
+        <v>135775</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08281877828958896</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06927393920491456</v>
+        <v>0.06858666063883187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09718341796490708</v>
+        <v>0.09724731541002375</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>69812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54653</v>
+        <v>53647</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88841</v>
+        <v>90041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1031603647399584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08076089943573352</v>
+        <v>0.07927386918240062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1312797000494539</v>
+        <v>0.1330523067640084</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>100</v>
@@ -8219,19 +8219,19 @@
         <v>63639</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51869</v>
+        <v>51949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77106</v>
+        <v>76147</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08845461097753861</v>
+        <v>0.08845461097753859</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07209578976809002</v>
+        <v>0.0722069315458308</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.107172991982648</v>
+        <v>0.1058406151007098</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>170</v>
@@ -8240,19 +8240,19 @@
         <v>133451</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>113746</v>
+        <v>113274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>157611</v>
+        <v>156728</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09558251516773081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08146927019440632</v>
+        <v>0.08113131572090944</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1128868810502121</v>
+        <v>0.1122548699255852</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>249514</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>218126</v>
+        <v>218045</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>285102</v>
+        <v>284682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2436050121994749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2129607466622676</v>
+        <v>0.2128819726667285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2783506272198292</v>
+        <v>0.2779404102104863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>725</v>
@@ -8365,19 +8365,19 @@
         <v>504595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>476140</v>
+        <v>475398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>531215</v>
+        <v>535104</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4801376817194891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4530623501525657</v>
+        <v>0.4523556163692118</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5054675931560807</v>
+        <v>0.509167849448704</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>934</v>
@@ -8386,19 +8386,19 @@
         <v>754109</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>710452</v>
+        <v>709929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>798608</v>
+        <v>801857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3633920020351331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3423544601681309</v>
+        <v>0.3421024563649337</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3848357632843183</v>
+        <v>0.3864009985637232</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>357876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>325187</v>
+        <v>323907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>393165</v>
+        <v>394508</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3494010992978888</v>
+        <v>0.3494010992978889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3174859146758678</v>
+        <v>0.3162367448129909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3838541245215055</v>
+        <v>0.3851655224543686</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>367</v>
@@ -8436,19 +8436,19 @@
         <v>259578</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>235538</v>
+        <v>235411</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>285061</v>
+        <v>285668</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2469963314974148</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2241215267140152</v>
+        <v>0.2240009497836821</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2712446933935087</v>
+        <v>0.2718215345983684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>701</v>
@@ -8457,19 +8457,19 @@
         <v>617454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>578743</v>
+        <v>574983</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658013</v>
+        <v>661600</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2975403609714212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2788861652650907</v>
+        <v>0.2770743767132368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3170851277715122</v>
+        <v>0.3188137068353972</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>152832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>130954</v>
+        <v>130502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>179030</v>
+        <v>181101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1492127392259544</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1278533222611413</v>
+        <v>0.1274121023867966</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1747903528239881</v>
+        <v>0.1768120077211211</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -8507,19 +8507,19 @@
         <v>55969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45579</v>
+        <v>45631</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69070</v>
+        <v>69461</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05325643095452158</v>
+        <v>0.05325643095452159</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04336940423031846</v>
+        <v>0.04341968716294456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06572239280302652</v>
+        <v>0.06609454824893955</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>238</v>
@@ -8528,19 +8528,19 @@
         <v>208801</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>183045</v>
+        <v>184902</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>235980</v>
+        <v>238066</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1006176874434571</v>
+        <v>0.1006176874434572</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08820604479350971</v>
+        <v>0.08910110844108328</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1137148008302927</v>
+        <v>0.1147199770067452</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>132266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110903</v>
+        <v>110167</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158559</v>
+        <v>157474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1291334164162875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1082765617182859</v>
+        <v>0.1075582151938391</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1548045986407951</v>
+        <v>0.1537446338586408</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -8578,19 +8578,19 @@
         <v>101239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84356</v>
+        <v>83676</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119321</v>
+        <v>118121</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09633166955029686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08026774392449884</v>
+        <v>0.07962015919891072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1135371789199427</v>
+        <v>0.1123959452364794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -8599,19 +8599,19 @@
         <v>233504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206142</v>
+        <v>203220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269086</v>
+        <v>264048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1125216624188306</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09933649966057501</v>
+        <v>0.09792824529811701</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1296680163960633</v>
+        <v>0.1272402420598442</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>131768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108669</v>
+        <v>109072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156050</v>
+        <v>157641</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1286477328603942</v>
+        <v>0.1286477328603943</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1060956851348585</v>
+        <v>0.1064887005465112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1523542211416983</v>
+        <v>0.1539076800973179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -8649,19 +8649,19 @@
         <v>129557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110033</v>
+        <v>110994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>148872</v>
+        <v>150381</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1232778862782776</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1047000255955161</v>
+        <v>0.1056137988873583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1416559785991231</v>
+        <v>0.1430922211711129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>294</v>
@@ -8670,19 +8670,19 @@
         <v>261325</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>234992</v>
+        <v>233458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>297021</v>
+        <v>293792</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.125928287131158</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1132387075897931</v>
+        <v>0.1124991756103763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1431293687651392</v>
+        <v>0.1415735559838169</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>175504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>146619</v>
+        <v>148015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208553</v>
+        <v>209915</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2236576619288357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1868472717642501</v>
+        <v>0.188626263731431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2657741487327569</v>
+        <v>0.2675099655974963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>444</v>
@@ -8795,19 +8795,19 @@
         <v>341141</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>313324</v>
+        <v>316512</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>367183</v>
+        <v>369158</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4350343333165182</v>
+        <v>0.4350343333165183</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3995609407115203</v>
+        <v>0.4036257186275886</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4682440249173025</v>
+        <v>0.4707618889240631</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>560</v>
@@ -8816,19 +8816,19 @@
         <v>516645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>475909</v>
+        <v>477757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>557854</v>
+        <v>556179</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3293104137453468</v>
+        <v>0.3293104137453467</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3033450335406668</v>
+        <v>0.3045231028994315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3555767184185991</v>
+        <v>0.3545090381485651</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>239962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>213829</v>
+        <v>208255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>271933</v>
+        <v>267327</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3058013125590403</v>
+        <v>0.3058013125590402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2724978804836597</v>
+        <v>0.2653946311102414</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3465445915446799</v>
+        <v>0.3406749003354997</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>257</v>
@@ -8866,19 +8866,19 @@
         <v>200328</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176783</v>
+        <v>177320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>224211</v>
+        <v>223137</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2554649018426328</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2254388028887389</v>
+        <v>0.226123631107624</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2859216706630629</v>
+        <v>0.2845512176234605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>470</v>
@@ -8887,19 +8887,19 @@
         <v>440290</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>402098</v>
+        <v>404897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>477903</v>
+        <v>478810</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2806415810056913</v>
+        <v>0.2806415810056912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2562978006223522</v>
+        <v>0.2580820634459619</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3046160048557623</v>
+        <v>0.3051944306162852</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>119364</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>100074</v>
+        <v>99943</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141402</v>
+        <v>143342</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1521143487823331</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1275313456219317</v>
+        <v>0.1273647124458074</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1801995420697567</v>
+        <v>0.1826708283681893</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -8937,19 +8937,19 @@
         <v>34368</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25437</v>
+        <v>24630</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47391</v>
+        <v>45659</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04382741533642207</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03243835289224283</v>
+        <v>0.0314088137025599</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06043443570942201</v>
+        <v>0.05822609270210907</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>154</v>
@@ -8958,19 +8958,19 @@
         <v>153732</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>131687</v>
+        <v>131164</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>181448</v>
+        <v>179748</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09798911145494386</v>
+        <v>0.09798911145494385</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0839377423905881</v>
+        <v>0.0836043273846462</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.115655183257089</v>
+        <v>0.1145719440415134</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>118897</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>98775</v>
+        <v>100004</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>141267</v>
+        <v>142863</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.151518642491807</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1258761319573786</v>
+        <v>0.1274429028537011</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1800273673979231</v>
+        <v>0.1820608943742466</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -9008,19 +9008,19 @@
         <v>96848</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>81558</v>
+        <v>81765</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>114735</v>
+        <v>113374</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1235035198999306</v>
+        <v>0.1235035198999307</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1040054402783924</v>
+        <v>0.104269875180655</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1463131262491673</v>
+        <v>0.1445787684806691</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>235</v>
@@ -9029,19 +9029,19 @@
         <v>215744</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189590</v>
+        <v>189518</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>244289</v>
+        <v>244032</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1375157973581547</v>
+        <v>0.1375157973581546</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1208448043747873</v>
+        <v>0.1207989843731267</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1557100994172535</v>
+        <v>0.1555463746167055</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>130973</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107837</v>
+        <v>108946</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157589</v>
+        <v>155393</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1669080342379841</v>
+        <v>0.166908034237984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1374243681037751</v>
+        <v>0.1388373397483068</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2008272893337562</v>
+        <v>0.1980284767045282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -9079,19 +9079,19 @@
         <v>111485</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>94915</v>
+        <v>94422</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131628</v>
+        <v>129201</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1421698296044963</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1210387886296639</v>
+        <v>0.1204100786542992</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.16785569126592</v>
+        <v>0.1647616512875493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>262</v>
@@ -9100,19 +9100,19 @@
         <v>242458</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>215541</v>
+        <v>214959</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>275086</v>
+        <v>272658</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1545430964358636</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1373860744773741</v>
+        <v>0.1370152797018961</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1753402779785818</v>
+        <v>0.1737924833710508</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>176191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>149596</v>
+        <v>149866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>204478</v>
+        <v>205709</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1841476045236583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1563514944741681</v>
+        <v>0.1566342230665346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2137123916752862</v>
+        <v>0.2149992651910597</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>609</v>
@@ -9225,19 +9225,19 @@
         <v>446085</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>417542</v>
+        <v>419220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>474491</v>
+        <v>476272</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4127229944773607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3863148855472993</v>
+        <v>0.3878667328087857</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.439004910201891</v>
+        <v>0.4406523141426191</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>751</v>
@@ -9246,19 +9246,19 @@
         <v>622276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>582842</v>
+        <v>580388</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>665119</v>
+        <v>666064</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.305392791654147</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2860399735236044</v>
+        <v>0.2848355557865164</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3264189541987145</v>
+        <v>0.3268827089530905</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>270554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>240681</v>
+        <v>240289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>299225</v>
+        <v>303569</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2827731192239307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2515503970659878</v>
+        <v>0.2511405203441632</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3127383604237016</v>
+        <v>0.3172780914077847</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>327</v>
@@ -9296,19 +9296,19 @@
         <v>232330</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>210508</v>
+        <v>210095</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>256417</v>
+        <v>256633</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2149539157291643</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1947644834458961</v>
+        <v>0.19438271105426</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.23724003341424</v>
+        <v>0.2374401322966908</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>596</v>
@@ -9317,19 +9317,19 @@
         <v>502884</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>464993</v>
+        <v>467352</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>543908</v>
+        <v>542085</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2467992026074955</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2282035672021777</v>
+        <v>0.2293613158063179</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2669326075331642</v>
+        <v>0.2660380391360899</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>116539</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>98857</v>
+        <v>99458</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>138651</v>
+        <v>138763</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1218018502328214</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.103321743444917</v>
+        <v>0.1039501612388383</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1449123008478794</v>
+        <v>0.1450292819922021</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>82</v>
@@ -9367,19 +9367,19 @@
         <v>52655</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42556</v>
+        <v>41926</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>65915</v>
+        <v>65698</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04871669460570985</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03937300273043332</v>
+        <v>0.038790377873219</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06098493350449961</v>
+        <v>0.06078486995667751</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>215</v>
@@ -9388,19 +9388,19 @@
         <v>169193</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>145182</v>
+        <v>147219</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>191685</v>
+        <v>193669</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08303466986285744</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07125065874062134</v>
+        <v>0.07225019093819381</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09407257132627703</v>
+        <v>0.09504669768341144</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>175441</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150565</v>
+        <v>152925</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>200246</v>
+        <v>201998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.183363646350763</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1573644679017873</v>
+        <v>0.1598315137419483</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2092898709704608</v>
+        <v>0.2111208534882097</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>234</v>
@@ -9438,19 +9438,19 @@
         <v>166036</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>147242</v>
+        <v>146025</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>188341</v>
+        <v>187186</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1536179894996678</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1362297996751333</v>
+        <v>0.1351042552560446</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1742548153720779</v>
+        <v>0.1731865972985893</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>426</v>
@@ -9459,19 +9459,19 @@
         <v>341476</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>312096</v>
+        <v>310294</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>376916</v>
+        <v>375201</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1675854047300845</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1531667582836287</v>
+        <v>0.1522822741493385</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1849780337196826</v>
+        <v>0.1841365012589365</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>218066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>196245</v>
+        <v>193127</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>249466</v>
+        <v>244956</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2279137796688265</v>
+        <v>0.2279137796688266</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2051076379171748</v>
+        <v>0.2018484458697013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.260732620197095</v>
+        <v>0.256018499801034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>270</v>
@@ -9509,19 +9509,19 @@
         <v>183729</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162526</v>
+        <v>162118</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>204821</v>
+        <v>203818</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1699884056880972</v>
+        <v>0.1699884056880973</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1503708357442953</v>
+        <v>0.1499936669835112</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1895025107642501</v>
+        <v>0.1885751485312551</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>514</v>
@@ -9530,19 +9530,19 @@
         <v>401795</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>367460</v>
+        <v>368595</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>435103</v>
+        <v>440534</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1971879311454155</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1803373499855453</v>
+        <v>0.180894501416655</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2135344381320544</v>
+        <v>0.2161997178635998</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>805191</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>744506</v>
+        <v>742480</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>867950</v>
+        <v>869351</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2338988961002917</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2162705412071413</v>
+        <v>0.2156818514539862</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2521294802164069</v>
+        <v>0.2525365726913924</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2449</v>
@@ -9655,19 +9655,19 @@
         <v>1675131</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1618697</v>
+        <v>1623059</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1726310</v>
+        <v>1731887</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4607839707679511</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4452606069780254</v>
+        <v>0.4464605274887026</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.474862004750385</v>
+        <v>0.476396049700468</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3108</v>
@@ -9676,19 +9676,19 @@
         <v>2480322</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2398845</v>
+        <v>2393785</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2561586</v>
+        <v>2556187</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3504334678157087</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3389218792989096</v>
+        <v>0.3382070903610607</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3619148453068325</v>
+        <v>0.361152093228053</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1131843</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1068807</v>
+        <v>1076381</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1188153</v>
+        <v>1195677</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3287874439134455</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3104763450361476</v>
+        <v>0.3126763549429966</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3451449957520107</v>
+        <v>0.3473305646065352</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1230</v>
@@ -9726,19 +9726,19 @@
         <v>861211</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>819418</v>
+        <v>818269</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>914373</v>
+        <v>909961</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2368963829526168</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2254001183832244</v>
+        <v>0.2250841026574186</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2515196451651866</v>
+        <v>0.250306196256911</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2348</v>
@@ -9747,19 +9747,19 @@
         <v>1993054</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1912683</v>
+        <v>1927638</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2072864</v>
+        <v>2074062</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2815896039972182</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2702343517166598</v>
+        <v>0.2723472929306686</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2928654826688794</v>
+        <v>0.2930348269064362</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>471612</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>428735</v>
+        <v>430868</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>514244</v>
+        <v>516713</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1369977837865752</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1245427631420442</v>
+        <v>0.1251623123403107</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1493818938714953</v>
+        <v>0.1500992822659848</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>289</v>
@@ -9797,19 +9797,19 @@
         <v>187497</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>166121</v>
+        <v>166975</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>213299</v>
+        <v>211190</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05157550307618771</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04569549155532637</v>
+        <v>0.04593032629791055</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05867296660817322</v>
+        <v>0.05809286086930102</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>777</v>
@@ -9818,19 +9818,19 @@
         <v>659109</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>614541</v>
+        <v>609810</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>707468</v>
+        <v>705428</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09312249180396824</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08682574076234716</v>
+        <v>0.08615725146183935</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09995500600631432</v>
+        <v>0.09966667285258733</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>483212</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>437799</v>
+        <v>439400</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>525838</v>
+        <v>527923</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1403675740973617</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1271757434773312</v>
+        <v>0.1276407342900449</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1527500542538514</v>
+        <v>0.1533555877948863</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>590</v>
@@ -9868,19 +9868,19 @@
         <v>423143</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>393365</v>
+        <v>389931</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>466381</v>
+        <v>459679</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1163953136336853</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1082042092423738</v>
+        <v>0.1072596927524639</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1282890665680823</v>
+        <v>0.1264455148917101</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1071</v>
@@ -9889,19 +9889,19 @@
         <v>906355</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>854311</v>
+        <v>849226</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>961264</v>
+        <v>962500</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1280547451892591</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1207016704572379</v>
+        <v>0.1199832602957102</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1358125742158454</v>
+        <v>0.1359872464824566</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>550618</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>503345</v>
+        <v>509536</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>598838</v>
+        <v>599577</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1599483021023261</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1462159800425057</v>
+        <v>0.1480144148645461</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1739555412585032</v>
+        <v>0.1741703416076326</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>686</v>
@@ -9939,19 +9939,19 @@
         <v>488411</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>455731</v>
+        <v>453162</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>526402</v>
+        <v>526476</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1343488295695592</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1253594114868274</v>
+        <v>0.1246529065722933</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1447992211171144</v>
+        <v>0.1448196476874259</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1240</v>
@@ -9960,19 +9960,19 @@
         <v>1039029</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>981334</v>
+        <v>980555</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1098360</v>
+        <v>1094207</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1467996911938457</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1386481715221929</v>
+        <v>0.1385381697084083</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1551823511082651</v>
+        <v>0.1545955677825115</v>
       </c>
     </row>
     <row r="33">
